--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -9,12 +9,69 @@
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jss</author>
+  </authors>
+  <commentList>
+    <comment ref="M3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jss:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1: 增加时长
+2: 独立新增
+3: 替换
+4: 重置时长
+5: 自身互斥
+6: 角色独立
+7: 类型互斥</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +82,9 @@
     <t>Buff描述</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>图标</t>
   </si>
   <si>
@@ -121,16 +181,10 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>名称1</t>
-  </si>
-  <si>
-    <t>描述1</t>
-  </si>
-  <si>
     <t>buff_1</t>
   </si>
   <si>
-    <t>die</t>
+    <t>Buff_Die</t>
   </si>
   <si>
     <t xml:space="preserve"> [{'Cmd': 'mass_add_buff',  'ViewCmd': 'hostile_buff', 'Args': [30015001, 5000, 999, 10000], 'SubList': []}, {'Cmd': 'mass_hurt', 'ViewCmd': 'mass_damage', 'Args': [3500, 1, 999, 1], 'SubList': []}]</t>
@@ -139,16 +193,13 @@
     <t>25,3</t>
   </si>
   <si>
-    <t>名称2</t>
-  </si>
-  <si>
-    <t>描述2</t>
-  </si>
-  <si>
-    <t>buff_3</t>
-  </si>
-  <si>
-    <t>buff_xuanyun</t>
+    <t>buff_2</t>
+  </si>
+  <si>
+    <t>Buff_Dizzy</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>17,24,1,101</t>
@@ -157,14 +208,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,11 +231,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -329,6 +379,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -787,14 +848,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,6 +923,106 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Buff"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>内容</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Msg</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>int</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>30001</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>眩晕</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>30002</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>死亡</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>30003</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>30004</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>30005</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>30006</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>30007</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>30008</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>31001</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>眩晕描述</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>31002</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>死亡描述</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,264 +1283,311 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C3:R7"/>
+  <dimension ref="C2:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
-    <col min="15" max="15" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="13.2666666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="10.8666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="11.725" customWidth="1"/>
+    <col min="13" max="13" width="8.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="14.25" spans="3:18">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="5:7">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="3:20">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="S3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="3:18">
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="4" ht="14.25" spans="3:20">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="S4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" spans="3:18">
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="1" t="s">
+    <row r="5" ht="14.25" spans="3:20">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>32</v>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="3:17">
+    <row r="6" ht="14.25" spans="3:19">
       <c r="C6">
         <v>100000001</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="3">
+        <v>30001</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>VLOOKUP(D:D,[1]Buff!$C:$D,2,FALSE)</f>
+        <v>眩晕</v>
+      </c>
+      <c r="F6" s="3">
+        <v>31001</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>VLOOKUP(F:F,[1]Buff!$C:$D,2,FALSE)</f>
+        <v>眩晕描述</v>
+      </c>
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="H6">
+      <c r="J6" s="1">
         <v>3600</v>
       </c>
-      <c r="I6">
+      <c r="K6" s="1">
         <v>1000</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K6">
+      <c r="M6" s="1">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>2</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="3:17">
+    <row r="7" ht="14.25" spans="3:19">
       <c r="C7">
-        <v>100001001</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>100000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>30002</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>VLOOKUP(D:D,[1]Buff!$C:$D,2,FALSE)</f>
+        <v>死亡</v>
+      </c>
+      <c r="F7" s="3">
+        <v>31002</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>VLOOKUP(F:F,[1]Buff!$C:$D,2,FALSE)</f>
+        <v>死亡描述</v>
+      </c>
+      <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
+      <c r="Q7">
         <v>1</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>100001</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M19 M6:M7">
+      <formula1>"1,2,3,4,5,6,7"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -184,19 +184,19 @@
     <t>buff_1</t>
   </si>
   <si>
+    <t>Buff_Dizzy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [{'Cmd': 'mass_add_buff',  'ViewCmd': 'hostile_buff', 'Args': [30015001, 5000, 999, 10000], 'SubList': []}, {'Cmd': 'mass_hurt', 'ViewCmd': 'mass_damage', 'Args': [3500, 1, 999, 1], 'SubList': []}]</t>
+  </si>
+  <si>
+    <t>25,3</t>
+  </si>
+  <si>
+    <t>buff_2</t>
+  </si>
+  <si>
     <t>Buff_Die</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [{'Cmd': 'mass_add_buff',  'ViewCmd': 'hostile_buff', 'Args': [30015001, 5000, 999, 10000], 'SubList': []}, {'Cmd': 'mass_hurt', 'ViewCmd': 'mass_damage', 'Args': [3500, 1, 999, 1], 'SubList': []}]</t>
-  </si>
-  <si>
-    <t>25,3</t>
-  </si>
-  <si>
-    <t>buff_2</t>
-  </si>
-  <si>
-    <t>Buff_Dizzy</t>
   </si>
   <si>
     <t>[]</t>
@@ -381,12 +381,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1290,7 +1290,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1503,11 +1503,9 @@
         <v>38</v>
       </c>
       <c r="J6" s="1">
-        <v>3600</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1000</v>
-      </c>
+        <v>6000</v>
+      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="4" t="s">
         <v>39</v>
       </c>
